--- a/GenerateData/Document/Requirement/sprint01/ticket/Task 1101 - Hanle Button Dynamic.xlsx
+++ b/GenerateData/Document/Requirement/sprint01/ticket/Task 1101 - Hanle Button Dynamic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Requirement\sprint01\ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F693862-BAEB-44BC-9A12-B3D2AA94EABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68742C5-DB50-471E-B02B-D2A8224BDD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,6 +467,249 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1800225" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Hộp Văn bản 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F68177-CE06-4ACB-857A-726320CE775F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="6524624"/>
+          <a:ext cx="1800225" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>if remove last record then green button will move into above record</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Đường kết nối Mũi tên Thẳng 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57112676-5B30-492F-A422-11B77ABB4139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6596063" y="5934075"/>
+          <a:ext cx="1852612" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Hình chữ nhật 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A287F3C9-1220-4ED2-8310-2B9C058108FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="5229225"/>
+          <a:ext cx="285750" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>477338</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448543</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Mũi tên: Cong Xuống 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7D7FFF-B7E8-41B9-859D-FD0E475F3D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7765814" y="5262523"/>
+          <a:ext cx="634253" cy="580805"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -737,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
